--- a/public/default/data-orders-default.xlsx
+++ b/public/default/data-orders-default.xlsx
@@ -1,20 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23513"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QUANGPC\Pictures\Camera Roll\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E016BD3-9E9C-41C0-8761-7D6662BB8EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -114,8 +126,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -267,6 +279,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -302,6 +331,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -477,14 +523,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="25" customWidth="1"/>
@@ -493,7 +539,7 @@
     <col min="23" max="23" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +607,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -583,9 +629,6 @@
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>300000</v>
-      </c>
       <c r="J2">
         <v>300000</v>
       </c>
@@ -611,7 +654,7 @@
         <v>0</v>
       </c>
       <c r="R2">
-        <v>300000</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>300000</v>

--- a/public/default/data-orders-default.xlsx
+++ b/public/default/data-orders-default.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23513"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24102"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QUANGPC\Pictures\Camera Roll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E016BD3-9E9C-41C0-8761-7D6662BB8EDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F880CAFB-B133-448A-A4A5-AB128BD3C713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028" calcCompleted="0"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>NGÀY TẠO</t>
   </si>
@@ -99,12 +99,12 @@
     <t>NGÀY THANH TOÁN</t>
   </si>
   <si>
+    <t>CHI NHÁNH</t>
+  </si>
+  <si>
     <t>28/11/2019</t>
   </si>
   <si>
-    <t>DH3637</t>
-  </si>
-  <si>
     <t>0978021705</t>
   </si>
   <si>
@@ -121,13 +121,19 @@
   </si>
   <si>
     <t>28/11/2019 00:00</t>
+  </si>
+  <si>
+    <t>Chi nhánh Tân Bình</t>
+  </si>
+  <si>
+    <t>Phần mã đơn hàng khi cập nhật đơn mới cần nhận, nhập lần đâu để trống</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -137,6 +143,11 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -181,9 +192,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -524,10 +541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3:AB3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -537,9 +554,10 @@
     <col min="7" max="18" width="15" customWidth="1"/>
     <col min="19" max="22" width="20" customWidth="1"/>
     <col min="23" max="23" width="25" customWidth="1"/>
+    <col min="28" max="28" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -606,12 +624,12 @@
       <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:28">
       <c r="A2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" t="s">
         <v>23</v>
       </c>
       <c r="C2" t="s">
@@ -668,9 +686,24 @@
       <c r="V2" t="s">
         <v>29</v>
       </c>
+      <c r="W2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28">
+      <c r="X3" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="X3:AB3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/default/data-orders-default.xlsx
+++ b/public/default/data-orders-default.xlsx
@@ -2,18 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24102"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QUANGPC\Pictures\Camera Roll\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F880CAFB-B133-448A-A4A5-AB128BD3C713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD5F69EE-F832-4881-ADF7-48AF1B7B6AFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -31,102 +26,171 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
-  <si>
-    <t>NGÀY TẠO</t>
-  </si>
-  <si>
-    <t>MÃ ĐH</t>
-  </si>
-  <si>
-    <t>SỐ ĐT</t>
-  </si>
-  <si>
-    <t>MÃ SP</t>
-  </si>
-  <si>
-    <t>TÊN SẢN PHẨM</t>
-  </si>
-  <si>
-    <t>MÔ TẢ</t>
-  </si>
-  <si>
-    <t>NHÓM SẢN PHẨM</t>
-  </si>
-  <si>
-    <t>SỐ LƯỢNG</t>
-  </si>
-  <si>
-    <t>GIÁ VỐN</t>
-  </si>
-  <si>
-    <t>GIÁ BÁN</t>
-  </si>
-  <si>
-    <t>VAT(%)</t>
-  </si>
-  <si>
-    <t>CK(%)</t>
-  </si>
-  <si>
-    <t>CK(Đ)</t>
-  </si>
-  <si>
-    <t>THÀNH TIỀN</t>
-  </si>
-  <si>
-    <t>DOANH SỐ</t>
-  </si>
-  <si>
-    <t>CHIẾT KHẤU (Đ)</t>
-  </si>
-  <si>
-    <t>VAT (Đ)</t>
-  </si>
-  <si>
-    <t>DOANH THU</t>
-  </si>
-  <si>
-    <t>ĐÃ THANH TOÁN</t>
-  </si>
-  <si>
-    <t>CÒN LẠI</t>
-  </si>
-  <si>
-    <t>HÌNH THỨC THANH TOÁN TỪNG LẦN</t>
-  </si>
-  <si>
-    <t>NGÀY THANH TOÁN</t>
-  </si>
-  <si>
-    <t>CHI NHÁNH</t>
-  </si>
-  <si>
-    <t>28/11/2019</t>
-  </si>
-  <si>
-    <t>0978021705</t>
-  </si>
-  <si>
-    <t>SP0068</t>
-  </si>
-  <si>
-    <t>Phun Mày</t>
-  </si>
-  <si>
-    <t>dặm lại lông mày ( chỉ lấy tiền mực)</t>
-  </si>
-  <si>
-    <t>Chuyển khoản</t>
-  </si>
-  <si>
-    <t>28/11/2019 00:00</t>
-  </si>
-  <si>
-    <t>Chi nhánh Tân Bình</t>
-  </si>
-  <si>
-    <t>Phần mã đơn hàng khi cập nhật đơn mới cần nhận, nhập lần đâu để trống</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="55">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Ngày đặt hàng</t>
+  </si>
+  <si>
+    <t>Ngày hết hạn</t>
+  </si>
+  <si>
+    <t>Mã ĐH</t>
+  </si>
+  <si>
+    <t>Tên KH</t>
+  </si>
+  <si>
+    <t>SĐT</t>
+  </si>
+  <si>
+    <t>Sản phẩm|Dịch vụ</t>
+  </si>
+  <si>
+    <t>Số lượng (nếu có)</t>
+  </si>
+  <si>
+    <t>Doanh số</t>
+  </si>
+  <si>
+    <t>Doanh thu</t>
+  </si>
+  <si>
+    <t>Còn nợ</t>
+  </si>
+  <si>
+    <t>Khuyến mại (voucher)</t>
+  </si>
+  <si>
+    <t>Hình thức thanh toán</t>
+  </si>
+  <si>
+    <t>Ngày thanh toán</t>
+  </si>
+  <si>
+    <t>Người lên đơn</t>
+  </si>
+  <si>
+    <t>03/05/2021</t>
+  </si>
+  <si>
+    <t>Chị Nhiên</t>
+  </si>
+  <si>
+    <t>0708361792</t>
+  </si>
+  <si>
+    <t>Trị thâm nách,Trị Hôi</t>
+  </si>
+  <si>
+    <t>4,000,000</t>
+  </si>
+  <si>
+    <t>2,000,000</t>
+  </si>
+  <si>
+    <t>Tiền mặt</t>
+  </si>
+  <si>
+    <t>anh Lộc + con</t>
+  </si>
+  <si>
+    <t>0967155959</t>
+  </si>
+  <si>
+    <t>Trị Hôi,phụ phí khóa hôi</t>
+  </si>
+  <si>
+    <t>17,600,000</t>
+  </si>
+  <si>
+    <t>1,400,000</t>
+  </si>
+  <si>
+    <t>16,200,000</t>
+  </si>
+  <si>
+    <t>Telesale- Nhi</t>
+  </si>
+  <si>
+    <t>Tạo mới đơn hàng, mã đơn hàng để trống ; Cập nhật đơn hàng thì điền mã đơn</t>
+  </si>
+  <si>
+    <t>05/05/2021</t>
+  </si>
+  <si>
+    <t>Nguyet Nguyen</t>
+  </si>
+  <si>
+    <t>0902480798</t>
+  </si>
+  <si>
+    <t>Trị Hôi</t>
+  </si>
+  <si>
+    <t>500,000</t>
+  </si>
+  <si>
+    <t>Điểm</t>
+  </si>
+  <si>
+    <t>Chị Loan</t>
+  </si>
+  <si>
+    <t>0947633488</t>
+  </si>
+  <si>
+    <t>phụ phí khóa hôi</t>
+  </si>
+  <si>
+    <t>15,000,000</t>
+  </si>
+  <si>
+    <t>4,600,000</t>
+  </si>
+  <si>
+    <t>10,400,000</t>
+  </si>
+  <si>
+    <t>Lễ tân - TB</t>
+  </si>
+  <si>
+    <t>Chị Anh</t>
+  </si>
+  <si>
+    <t>0907002042</t>
+  </si>
+  <si>
+    <t>10,000,000</t>
+  </si>
+  <si>
+    <t>4,500,000</t>
+  </si>
+  <si>
+    <t>5,500,000</t>
+  </si>
+  <si>
+    <t>Telesale- Nghi</t>
+  </si>
+  <si>
+    <t>06/05/2021</t>
+  </si>
+  <si>
+    <t>Lê Nhật Trường</t>
+  </si>
+  <si>
+    <t>0976463520</t>
+  </si>
+  <si>
+    <t>8,000,000</t>
+  </si>
+  <si>
+    <t>7,000,000</t>
+  </si>
+  <si>
+    <t>Telesale - Thúy</t>
   </si>
 </sst>
 </file>
@@ -140,9 +204,8 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
@@ -160,32 +223,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF008686"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -194,15 +242,9 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -263,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -296,26 +338,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -348,23 +373,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,23 +549,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB3"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="X3" sqref="X3:AB3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="L2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3:W3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="25" customWidth="1"/>
-    <col min="7" max="18" width="15" customWidth="1"/>
-    <col min="19" max="22" width="20" customWidth="1"/>
-    <col min="23" max="23" width="25" customWidth="1"/>
-    <col min="28" max="28" width="40.7109375" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,107 +623,292 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:23" ht="15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="E2" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="F2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="G2" t="s">
         <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="J2">
-        <v>300000</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" ht="14.45" customHeight="1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
-      <c r="N2">
-        <v>300000</v>
-      </c>
-      <c r="O2">
-        <v>300000</v>
-      </c>
-      <c r="P2">
+      <c r="M3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+    </row>
+    <row r="4" spans="1:23" ht="15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4">
         <v>0</v>
       </c>
-      <c r="Q2">
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4">
         <v>0</v>
       </c>
-      <c r="R2">
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5">
         <v>0</v>
       </c>
-      <c r="S2">
-        <v>300000</v>
-      </c>
-      <c r="T2">
+      <c r="K5" t="s">
+        <v>34</v>
+      </c>
+      <c r="L5">
         <v>0</v>
       </c>
-      <c r="U2" t="s">
-        <v>28</v>
-      </c>
-      <c r="V2" t="s">
-        <v>29</v>
-      </c>
-      <c r="W2" t="s">
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
       </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" t="s">
+        <v>40</v>
+      </c>
+      <c r="K6" t="s">
+        <v>41</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" t="s">
+        <v>30</v>
+      </c>
+      <c r="O6" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="3" spans="1:28">
-      <c r="X3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
+    <row r="7" spans="1:23">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" t="s">
+        <v>30</v>
+      </c>
+      <c r="O7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" t="s">
+        <v>53</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O8" t="s">
+        <v>54</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="1">
-    <mergeCell ref="X3:AB3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>